--- a/planilhas/coleta_everton.xlsx
+++ b/planilhas/coleta_everton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>Complemento</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Telefone</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -466,6 +471,7 @@
           <t>BLOCO 1 SALA 216   E   306</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -483,6 +489,7 @@
           <t>Lj138</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -500,6 +507,7 @@
           <t>loja 124</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -517,6 +525,7 @@
           <t xml:space="preserve"> lj 135</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -534,6 +543,7 @@
           <t>Asa 3 Sala 158</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -551,6 +561,7 @@
           <t>Bl 1 Apto 1906</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -564,6 +575,7 @@
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -581,6 +593,7 @@
           <t>bl 4 lojas 101 a 103</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -594,6 +607,7 @@
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -611,6 +625,7 @@
           <t>COND LAGOA MAR NOR</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -628,6 +643,7 @@
           <t>Sala 67 FreeWay</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -645,6 +661,7 @@
           <t>Lj 31</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -662,6 +679,7 @@
           <t>Bloco 1 sala 308</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -679,6 +697,7 @@
           <t>Bl 6 cond. lead barra</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -696,6 +715,7 @@
           <t xml:space="preserve">bloco 3 sala 220 </t>
         </is>
       </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -713,389 +733,409 @@
           <t xml:space="preserve">loja J </t>
         </is>
       </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Modamar</t>
+          <t>Criticare</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alceu amoroso Lima, 105 </t>
+          <t xml:space="preserve">Av. das Américas, 1155 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>506</t>
-        </is>
-      </c>
+          <t>sala 809 213</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Criticare</t>
+          <t>Analuz</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. das Américas, 1155 </t>
+          <t>Av. das Américas, 1155</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>sala 809 213</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> SL 1501</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Analuz</t>
+          <t>Voce portugues</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Av. das Américas, 1155</t>
+          <t xml:space="preserve">Av. das Américas, 1155 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SL 1501</t>
-        </is>
-      </c>
+          <t>Sala 1408</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Voce portugues</t>
+          <t>Fabio</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. das Américas, 1155 </t>
+          <t xml:space="preserve">Av. Prefeito Dulcidio Cardoso, 1640 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sala 1408</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Bl 1 / 1805 </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fabio</t>
+          <t xml:space="preserve">Braga neto </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. Prefeito Dulcidio Cardoso, 1640 </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bl 1 / 1805 </t>
-        </is>
-      </c>
+          <t>Av. Pref. Dulcídio Cardoso, 1600</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Braga neto </t>
+          <t>Desir</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Av. Pref. Dulcídio Cardoso, 1600</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>Av. Evandro Lins e Silva, 840</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SL 1719</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Desir</t>
+          <t>Nanke</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Av. Evandro Lins e Silva, 840</t>
+          <t xml:space="preserve">Avenida Evandro Lins e Silva 840 </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SL 1719</t>
-        </is>
-      </c>
+          <t>sala 1704   ACHO QUE FECHOU</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Nanke</t>
+          <t>Ortoneuro</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avenida Evandro Lins e Silva 840 </t>
+          <t>Av. Evandro Lins e Silva, 840</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>sala 1704   ACHO QUE FECHOU</t>
-        </is>
-      </c>
+          <t>SL. 512</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ortoneuro</t>
+          <t>Realcare</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Av. Evandro Lins e Silva, 840</t>
+          <t xml:space="preserve">Av. Evandro Lins e Silva, 840 </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SL. 512</t>
-        </is>
-      </c>
+          <t>sol. 502/503</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Realcare</t>
+          <t>Rosa leal</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. Evandro Lins e Silva, 840 </t>
+          <t>Rua Jornalista Henrique Cordeiro, 350</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>sol. 502/503</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> APTO 1108 BL 2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Rosa leal</t>
+          <t xml:space="preserve">Bilezik </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Rua Jornalista Henrique Cordeiro, 350</t>
+          <t>Rua Jornalista Henrique Cordeiro 310</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> APTO 1108 BL 2</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> BL 2 - 1705</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Nick Art</t>
+          <t xml:space="preserve">little socks </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Jornalista Henrique Cordeiro, 350 </t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t xml:space="preserve">Av Pref. Dulcídio Cardoso, 1315 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APTO 1001 BL 1 </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bilezik </t>
+          <t>toque</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Rua Jornalista Henrique Cordeiro 310</t>
+          <t xml:space="preserve">Rua Jose Candido, 3693 </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BL 2 - 1705</t>
-        </is>
-      </c>
+          <t>sala 222</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">little socks </t>
+          <t>My print</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av Pref. Dulcídio Cardoso, 1315 </t>
+          <t xml:space="preserve">Av. prefeito Dulcídio Cardoso 3333 </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">APTO 1001 BL 1 </t>
-        </is>
-      </c>
+          <t>bloco 01 Apto 504</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>toque</t>
+          <t>nanke</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Jose Candido, 3693 </t>
+          <t xml:space="preserve">Av. lúcio costa, 5000 </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>sala 222</t>
-        </is>
-      </c>
+          <t>bloco 2 apto 801</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>My print</t>
+          <t>pop cosm</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. prefeito Dulcídio Cardoso 3333 </t>
+          <t xml:space="preserve">Rua Campos Novos 74 </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>bloco 01 Apto 504</t>
-        </is>
-      </c>
+          <t>apto 201</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>nanke</t>
+          <t>camisa10</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. lúcio costa, 5000 </t>
+          <t xml:space="preserve">Av. Arquiteto Afonso Reidy, 261 </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>bloco 2 apto 801</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Cobertura 302 </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>pop cosm</t>
+          <t>jeito</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Campos Novos 74 </t>
+          <t xml:space="preserve">Av. Pref. Dulcídio Cardoso, 2920 </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>apto 201</t>
-        </is>
-      </c>
+          <t>APTO 2007</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>camisa10</t>
+          <t>realcloud</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. Arquiteto Afonso Reidy, 261 </t>
+          <t xml:space="preserve">Av. Armando Lombardi 800 </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cobertura 302 </t>
-        </is>
-      </c>
+          <t>sala 330</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>jeito</t>
+          <t>jbandrade</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. Pref. Dulcídio Cardoso, 2920 </t>
+          <t>Av. Fernando Mattos,300</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>APTO 2007</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> loja E.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>realcloud</t>
+          <t>solar</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. Armando Lombardi 800 </t>
+          <t xml:space="preserve">Avenida Armando Lombardi, 205 </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>sala 330</t>
-        </is>
-      </c>
+          <t>SL 304</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>jbandrade</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Av. Fernando Mattos,300</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> loja E.</t>
-        </is>
-      </c>
+          <t>faadi</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>solar</t>
+          <t>salarrio</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avenida Armando Lombardi, 205 </t>
+          <t xml:space="preserve">Av. Olegário Maciel, 175 </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SL 304</t>
-        </is>
-      </c>
+          <t>Sala 303</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1105,298 +1145,321 @@
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>salarrio</t>
+          <t>ticiane</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. Olegário Maciel, 175 </t>
+          <t xml:space="preserve">Av. João Carlos Machado, 380 </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Sala 303</t>
-        </is>
-      </c>
+          <t>Sala 202</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>faadi</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+          <t>dumara</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R Engenheiro Neves da Rocha, 91 </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cs Cond águas do ITANHANGA  </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ticiane</t>
+          <t>escola de gente</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. João Carlos Machado, 380 </t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Sala 202</t>
-        </is>
-      </c>
+          <t>Av. Fleming, 200</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>coocnut</t>
+          <t>powder</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R. Poe. Khalil Gibran, 796</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>Estrada do Joá, 2590</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LOTE 5 LOTE 34058</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>dumara</t>
+          <t>tnt</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">R Engenheiro Neves da Rocha, 91 </t>
+          <t>Estrada da Gavea 899</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cs Cond águas do ITANHANGA  </t>
-        </is>
-      </c>
+          <t xml:space="preserve"> loja 243</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>escola de gente</t>
+          <t>rituals</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Av. Fleming, 200</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
+          <t xml:space="preserve">Av. Aquarela do Brasil, 333 </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Bl 1Apto 2304</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>powder</t>
+          <t>rio eyewear</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Estrada do Joá, 2590</t>
+          <t>Rua Guilherme  Baptista 215</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LOTE 5 LOTE 34058</t>
-        </is>
-      </c>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>tnt</t>
+          <t>evandro</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Estrada da Gavea 899</t>
+          <t xml:space="preserve">RUA MARQUES DE SAO VICENTE 124 </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> loja 243</t>
-        </is>
-      </c>
+          <t>LJ 108</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>rituals</t>
+          <t>Isabella kahn</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. Aquarela do Brasil, 333 </t>
+          <t xml:space="preserve">Rua Vice Gov. Rubens Berardo, 125 </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Bl 1Apto 2304</t>
-        </is>
-      </c>
+          <t>Apto  505 Bl 1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>rio eyewear</t>
+          <t>2rd</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Rua Guilherme  Baptista 215</t>
+          <t>Rua Vice Governador Rubens Berardo 175</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>201</t>
-        </is>
-      </c>
+          <t xml:space="preserve">apto 204 BL 2 </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>evandro</t>
+          <t>urbani</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">RUA MARQUES DE SAO VICENTE 124 </t>
+          <t xml:space="preserve">Praça Santos Dumont, 62 </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>LJ 108</t>
-        </is>
-      </c>
+          <t>sala 301</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Isabella kahn</t>
+          <t>tramas</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Vice Gov. Rubens Berardo, 125 </t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Apto  505 Bl 1</t>
-        </is>
-      </c>
+          <t>Rua Major Rubens Vaz, 414</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2rd</t>
+          <t>dalu</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Rua Vice Governador Rubens Berardo 175</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">apto 204 BL 2 </t>
-        </is>
-      </c>
+          <t>Rua Frei Tomás, 20</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>urbani</t>
+          <t>2peaks</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Praça Santos Dumont, 62 </t>
+          <t xml:space="preserve">Estrada do Joa, 102 </t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>sala 301</t>
-        </is>
-      </c>
+          <t>LJ 101 B</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>tramas</t>
+          <t>fbcards</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Rua Major Rubens Vaz, 414</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
+          <t>SAOCONRADO</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BL 08 SL 209 </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>techkit</t>
+          <t>sansastore</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ESTRADA DA GAVEA</t>
+          <t xml:space="preserve">Av. das Américas, 500 </t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>TA NO LEBLON ACHO QUE FECHOU</t>
-        </is>
-      </c>
+          <t>Bl 22 Loja 113A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>dalu</t>
+          <t>lechic loja</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Rua Frei Tomás, 20</t>
+          <t>Av. das Américas, 500</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2peaks</t>
+          <t>Farmacia Alquiotupa downtown</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estrada do Joa, 102 </t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>LJ 101 B</t>
-        </is>
-      </c>
+          <t>Av. das Américas, 500</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>fbcards</t>
+          <t>fb cards</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SAOCONRADO</t>
+          <t xml:space="preserve">Av. das AMERICAS 500 </t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1404,11 +1467,12 @@
           <t xml:space="preserve">BL 08 SL 209 </t>
         </is>
       </c>
+      <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>sansastore</t>
+          <t>micmic</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1418,252 +1482,246 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Bl 22 Loja 113A</t>
-        </is>
-      </c>
+          <t>bloco 8 Loja 140</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>lechic loja</t>
+          <t>Imed</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Av. das Américas, 500</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
+          <t>Av. das Americas, 500</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bloco 10 sala 202</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>alq downtown</t>
+          <t>mimppy</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Av. das Américas, 500</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
+          <t xml:space="preserve">Av. das Américas, 500 </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bl 16 Sl 116 </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>fb cards</t>
+          <t>trupe</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. das AMERICAS 500 </t>
+          <t>Av das américas, 500</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">BL 08 SL 209 </t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Bloco 17 Loja 129</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>micmic</t>
+          <t>zoox</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. das Américas, 500 </t>
+          <t xml:space="preserve">Av. das Americas 500 </t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>bloco 8 Loja 140</t>
-        </is>
-      </c>
+          <t>Bloco 19 Sala 304</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>radio</t>
+          <t>lechic escritorio</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Av. das Americas, 500</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Bloco 10 sala 202</t>
-        </is>
-      </c>
+          <t>Av. das Américas, 500</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>mimppy</t>
+          <t>the blend</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. das Américas, 500 </t>
+          <t xml:space="preserve">AV. das Americas 500 </t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bl 16 Sl 116 </t>
-        </is>
-      </c>
+          <t>bloco 21 Loja 104</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>trupe</t>
+          <t>alex MARCAS</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Av das américas, 500</t>
+          <t xml:space="preserve">Av. Américas, 700 </t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bloco 17 Loja 129</t>
-        </is>
-      </c>
+          <t>LJ 214 D E SETOR VERDE</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>zoox</t>
+          <t>miudo</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. das Americas 500 </t>
+          <t xml:space="preserve">Av. das Américas, 700 </t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Bloco 19 Sala 304</t>
-        </is>
-      </c>
+          <t>Bl 3 Sl 234</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>lechic escritorio</t>
+          <t>comunicare</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Av. das Américas, 500</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
+          <t xml:space="preserve">AV DAS AMERICAS 700 </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>BL 8 - LJ 107M</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>the blend</t>
+          <t>mudra</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve">AV. das Americas 500 </t>
+          <t xml:space="preserve">Rua Prefeito Dulcidio Cardoso 1500 </t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>bloco 21 Loja 104</t>
-        </is>
-      </c>
+          <t>apto. 703</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>alex MARCAS</t>
+          <t xml:space="preserve">TOORIO </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. Américas, 700 </t>
+          <t>AV LUCIO COSTA 3602 APTO 2101 BL 1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>LJ 214 D E SETOR VERDE</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> APTO 2101 BL 1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>miudo</t>
+          <t>GBW</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. das Américas, 700 </t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Bl 3 Sl 234</t>
-        </is>
-      </c>
+          <t>Rua</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>comunicare</t>
+          <t>OAK PEAK</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">AV DAS AMERICAS 700 </t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>BL 8 - LJ 107M</t>
-        </is>
-      </c>
+          <t>Av</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>mudra</t>
+          <t>Shopzyn</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Prefeito Dulcidio Cardoso 1500 </t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>apto. 703</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TOORIO </t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>AV LUCIO COSTA 3602 APTO 2101 BL 1</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> APTO 2101 BL 1</t>
-        </is>
-      </c>
+          <t>Rua</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/planilhas/coleta_everton.xlsx
+++ b/planilhas/coleta_everton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1723,6 +1723,20 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">centauro park shopping </t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Estr. do Monteiro, 1200</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
